--- a/PEI_employee/DW Employee Expanding.xlsx
+++ b/PEI_employee/DW Employee Expanding.xlsx
@@ -215,20 +215,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,7 +513,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,18 +528,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -568,14 +568,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -586,14 +586,14 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -610,14 +610,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -630,14 +630,14 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -650,14 +650,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -668,13 +668,13 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -694,35 +694,35 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>18</v>
       </c>
     </row>

--- a/PEI_employee/DW Employee Expanding.xlsx
+++ b/PEI_employee/DW Employee Expanding.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -195,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,9 +204,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,6 +227,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,25 +527,18 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -551,187 +548,230 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:I1"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="5" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="92.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>